--- a/server/resource/excel/ExcelImport.xlsx
+++ b/server/resource/excel/ExcelImport.xlsx
@@ -1,90 +1,515 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA2E71E-CEDE-4383-8B66-A95FE11F0809}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="2700" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>路由Name</t>
-  </si>
-  <si>
-    <t>路由Path</t>
-  </si>
-  <si>
-    <t>是否隐藏</t>
-  </si>
-  <si>
-    <t>父节点</t>
-  </si>
-  <si>
-    <t>文件名称</t>
-  </si>
-  <si>
-    <t>https://www.gin-vue-admin.com</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+  <si>
+    <t>鲁证持仓数据</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>期货公司</t>
+  </si>
+  <si>
+    <t>品种</t>
+  </si>
+  <si>
+    <t>总上缴手续费</t>
+  </si>
+  <si>
+    <t>量化客户上缴</t>
+  </si>
+  <si>
+    <t>最新日均持仓量</t>
+  </si>
+  <si>
+    <t>最新最大可操作量</t>
+  </si>
+  <si>
+    <t>最新持仓</t>
+  </si>
+  <si>
+    <t>本次周期</t>
+  </si>
+  <si>
+    <t>剩余天数</t>
+  </si>
+  <si>
+    <t>2022-06-16</t>
+  </si>
+  <si>
+    <t>鲁证</t>
+  </si>
+  <si>
+    <t>rb</t>
+  </si>
+  <si>
+    <t>hc</t>
+  </si>
+  <si>
+    <t>bu</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>fu</t>
+  </si>
+  <si>
+    <t>zn</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>cu</t>
+  </si>
+  <si>
+    <t>ag</t>
+  </si>
+  <si>
+    <t>pb</t>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>wr</t>
+  </si>
+  <si>
+    <t>lu</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>sn</t>
+  </si>
+  <si>
+    <t>au</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -92,32 +517,341 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="50">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 3" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -159,12 +893,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -194,12 +928,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -368,100 +1102,621 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="4" max="5" width="14.8796296296296"/>
+    <col min="6" max="6" width="11.5"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="11.5"/>
+    <col min="9" max="9" width="12.6296296296296" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" ht="16.2" spans="1:10">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8">
+        <v>4746716.842</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2744258.174</v>
+      </c>
+      <c r="F3" s="8">
+        <v>155867.095</v>
+      </c>
+      <c r="G3" s="8">
+        <v>24982.72</v>
+      </c>
+      <c r="H3" s="8">
+        <v>123861.569</v>
+      </c>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1741153.39</v>
+      </c>
+      <c r="E4" s="8">
+        <v>889849.15</v>
+      </c>
+      <c r="F4" s="8">
+        <v>53046.07</v>
+      </c>
+      <c r="G4" s="8">
+        <v>8705.77</v>
+      </c>
+      <c r="H4" s="8">
+        <v>57054</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2416952.09</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1231021.79</v>
+      </c>
+      <c r="F5" s="8">
+        <v>58680.67</v>
+      </c>
+      <c r="G5" s="8">
+        <v>21972.29</v>
+      </c>
+      <c r="H5" s="8">
+        <v>44375</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1125243</v>
+      </c>
+      <c r="E6" s="8">
+        <v>932298</v>
+      </c>
+      <c r="F6" s="8">
+        <v>22869.93</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3750.81</v>
+      </c>
+      <c r="H6" s="8">
+        <v>19038</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8">
+        <v>851524.26</v>
+      </c>
+      <c r="E7" s="8">
+        <v>36729.9</v>
+      </c>
+      <c r="F7" s="8">
+        <v>36628.2</v>
+      </c>
+      <c r="G7" s="8">
+        <v>10644.05</v>
+      </c>
+      <c r="H7" s="8">
+        <v>30998</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8">
+        <v>295719</v>
+      </c>
+      <c r="E8" s="8">
+        <v>238101</v>
+      </c>
+      <c r="F8" s="8">
+        <v>7998.53</v>
+      </c>
+      <c r="G8" s="8">
+        <v>938.79</v>
+      </c>
+      <c r="H8" s="8">
+        <v>8342</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8">
+        <v>469976.99</v>
+      </c>
+      <c r="E9" s="8">
+        <v>233391.35</v>
+      </c>
+      <c r="F9" s="8">
+        <v>8919.13</v>
+      </c>
+      <c r="G9" s="8">
+        <v>2764.57</v>
+      </c>
+      <c r="H9" s="8">
+        <v>9123</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8">
+        <v>329955</v>
+      </c>
+      <c r="E10" s="8">
+        <v>218700</v>
+      </c>
+      <c r="F10" s="8">
+        <v>8823.4</v>
+      </c>
+      <c r="G10" s="8">
+        <v>868.3</v>
+      </c>
+      <c r="H10" s="8">
+        <v>8965</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3504860</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2989980</v>
+      </c>
+      <c r="F11" s="8">
+        <v>5895</v>
+      </c>
+      <c r="G11" s="8">
+        <v>2696.05</v>
+      </c>
+      <c r="H11" s="8">
+        <v>6285</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="8">
+        <v>207788</v>
+      </c>
+      <c r="E12" s="8">
+        <v>12322</v>
+      </c>
+      <c r="F12" s="8">
+        <v>4272.27</v>
+      </c>
+      <c r="G12" s="8">
+        <v>903.43</v>
+      </c>
+      <c r="H12" s="8">
+        <v>3613</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1522507.13</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1150469.58</v>
+      </c>
+      <c r="F13" s="8">
+        <v>6001.47</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1443.13</v>
+      </c>
+      <c r="H13" s="8">
+        <v>6530</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="8">
+        <v>996884.03</v>
+      </c>
+      <c r="E14" s="8">
+        <v>614860.33</v>
+      </c>
+      <c r="F14" s="8">
+        <v>19267.8</v>
+      </c>
+      <c r="G14" s="8">
+        <v>3692.16</v>
+      </c>
+      <c r="H14" s="8">
+        <v>18531</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8">
+        <v>137936.03</v>
+      </c>
+      <c r="E15" s="8">
+        <v>84997.28</v>
+      </c>
+      <c r="F15" s="8">
+        <v>4312.13</v>
+      </c>
+      <c r="G15" s="8">
+        <v>626.98</v>
+      </c>
+      <c r="H15" s="8">
+        <v>4643</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="b">
+      <c r="D16" s="8">
+        <v>87984.71</v>
+      </c>
+      <c r="E16" s="8">
+        <v>65988.71</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1557.87</v>
+      </c>
+      <c r="G16" s="8">
+        <v>298.25</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1697</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="8">
+        <v>58901.97</v>
+      </c>
+      <c r="E17" s="8">
+        <v>21846.73</v>
+      </c>
+      <c r="F17" s="8">
+        <v>299.73</v>
+      </c>
+      <c r="G17" s="8">
+        <v>72.27</v>
+      </c>
+      <c r="H17" s="8">
+        <v>239</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="8">
+        <v>10.23</v>
+      </c>
+      <c r="E18" s="8">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
+      <c r="F18" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="H18" s="8">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="8">
+        <v>89550.13</v>
+      </c>
+      <c r="E19" s="8">
+        <v>82564.97</v>
+      </c>
+      <c r="F19" s="8">
+        <v>522.73</v>
+      </c>
+      <c r="G19" s="8">
+        <v>995</v>
+      </c>
+      <c r="H19" s="8">
+        <v>465</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="8">
+        <v>536709</v>
+      </c>
+      <c r="E20" s="8">
+        <v>267852</v>
+      </c>
+      <c r="F20" s="8">
+        <v>3000.87</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1325.21</v>
+      </c>
+      <c r="H20" s="8">
+        <v>3493</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1384068</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1001409</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1012.13</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2129.34</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1078</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="8">
+        <v>374098</v>
+      </c>
+      <c r="E22" s="8">
+        <v>293224</v>
+      </c>
+      <c r="F22" s="8">
+        <v>911.33</v>
+      </c>
+      <c r="G22" s="8">
+        <v>435</v>
+      </c>
+      <c r="H22" s="8">
+        <v>847</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>